--- a/RN_Asociador_Lineal-Ejemplo1/Instancia_Ejemplo1.xlsx
+++ b/RN_Asociador_Lineal-Ejemplo1/Instancia_Ejemplo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2024_3/Programas/U3_Clase/Asociador_Lineal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025/DCC_SegundoSemestre/RN_Asociador_Lineal-Ejemplo1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB54C77-6BD9-FA4E-B87E-C4ADC50700CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A283051-B3F2-3247-B009-898B7A1A694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="29600" windowHeight="15820" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19740" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>CAL 1</t>
-  </si>
-  <si>
     <t>CAL 2</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>SALIDAS (Y)</t>
   </si>
   <si>
-    <t>CODIFICACIO BINARIO</t>
-  </si>
-  <si>
     <t>NO SE USA</t>
   </si>
   <si>
@@ -133,6 +127,24 @@
   </si>
   <si>
     <t>Nombre 9</t>
+  </si>
+  <si>
+    <t>CAL 1 (sem)</t>
+  </si>
+  <si>
+    <t>CUALITATIVA: NOMINAL</t>
+  </si>
+  <si>
+    <t>--SE DEBE TRATAR A LOS DATOS PARA QUE LOS RECIBA EL ASOCIADOR</t>
+  </si>
+  <si>
+    <t>CODIFICACION BINARIO</t>
+  </si>
+  <si>
+    <t>CODIFICACIÓN ( DUMMY)</t>
+  </si>
+  <si>
+    <t>ARGMAX()</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +209,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -538,41 +567,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085510A3-C276-47B6-BB5B-CC503AD90EA4}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -588,19 +619,31 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -616,7 +659,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4"/>
       <c r="K3">
@@ -626,12 +669,30 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -647,7 +708,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4"/>
       <c r="K4">
@@ -657,12 +718,30 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -678,7 +757,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4"/>
       <c r="K5">
@@ -688,12 +767,30 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -709,7 +806,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4"/>
       <c r="K6">
@@ -719,12 +816,12 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -740,22 +837,13 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -771,25 +859,22 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4"/>
       <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -805,11 +890,11 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -818,15 +903,27 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -842,214 +939,160 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5"/>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
         <v>9</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1058,42 +1101,137 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>9</v>
       </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="J12:N12"/>
+  <mergeCells count="3">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
